--- a/DMSWithQMS User Details for Automation.xlsx
+++ b/DMSWithQMS User Details for Automation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2448" windowWidth="13896" windowHeight="6600" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="13890" windowHeight="6600" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="OrgNode" sheetId="14" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2103" uniqueCount="623">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2173" uniqueCount="621">
   <si>
     <t>Userid</t>
   </si>
@@ -1897,12 +1897,6 @@
   </si>
   <si>
     <t>WorkFlow_Appendix</t>
-  </si>
-  <si>
-    <t>Unit-I</t>
-  </si>
-  <si>
-    <t>Unit-I-QA</t>
   </si>
 </sst>
 </file>
@@ -2356,11 +2350,11 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -2420,12 +2414,12 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -2498,12 +2492,12 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -2575,11 +2569,11 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -2628,10 +2622,10 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2667,21 +2661,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I158"/>
   <sheetViews>
-    <sheetView topLeftCell="A108" workbookViewId="0">
-      <selection activeCell="A123" sqref="A123:E129"/>
+    <sheetView topLeftCell="A129" workbookViewId="0">
+      <selection activeCell="A137" sqref="A137:E141"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.5546875" customWidth="1"/>
-    <col min="9" max="9" width="40.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.5703125" customWidth="1"/>
+    <col min="9" max="9" width="40.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -5886,14 +5880,14 @@
       <selection activeCell="K116" sqref="K116"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="6" max="6" width="23" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="34" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="23" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -6109,21 +6103,21 @@
       <selection activeCell="K116" sqref="K116"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -7097,16 +7091,16 @@
       <selection activeCell="K116" sqref="K116"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -8106,22 +8100,22 @@
       <selection activeCell="L2" sqref="L2:N18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="26" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -9413,10 +9407,10 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -9470,21 +9464,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -9509,182 +9503,462 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="6" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>621</v>
+        <v>21</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>458</v>
       </c>
       <c r="D2" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>622</v>
+        <v>542</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="6" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>621</v>
+        <v>440</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>458</v>
       </c>
       <c r="D3" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>622</v>
+        <v>542</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="6" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>21</v>
+        <v>440</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>458</v>
       </c>
       <c r="D4" s="6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>622</v>
+        <v>542</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="6" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>621</v>
+        <v>440</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>458</v>
       </c>
       <c r="D5" s="6">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>622</v>
+        <v>542</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="6" t="s">
-        <v>483</v>
-      </c>
-      <c r="B6" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>488</v>
+        <v>458</v>
       </c>
       <c r="D6" s="6">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>489</v>
+        <v>464</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>622</v>
+        <v>542</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="6" t="s">
-        <v>490</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>21</v>
+        <v>457</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>440</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>488</v>
+        <v>458</v>
       </c>
       <c r="D7" s="6">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>494</v>
+        <v>465</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>622</v>
+        <v>542</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="6" t="s">
-        <v>491</v>
+        <v>467</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>621</v>
+        <v>21</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>488</v>
+        <v>458</v>
       </c>
       <c r="D8" s="6">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>495</v>
+        <v>474</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>622</v>
+        <v>543</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="6" t="s">
-        <v>492</v>
+        <v>468</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>621</v>
+        <v>21</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>488</v>
+        <v>458</v>
       </c>
       <c r="D9" s="6">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>496</v>
+        <v>475</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>622</v>
+        <v>543</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="D10" s="6">
+        <v>13</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="D11" s="6">
+        <v>14</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="D12" s="6">
+        <v>15</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="D13" s="6">
+        <v>16</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="6" t="s">
+        <v>473</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="D14" s="6">
+        <v>17</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="D15" s="6">
+        <v>1</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="D16" s="6">
+        <v>2</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="D17" s="6">
+        <v>3</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>495</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="D18" s="6">
+        <v>4</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>496</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="6" t="s">
         <v>493</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>621</v>
-      </c>
-      <c r="C10" s="6" t="s">
+      <c r="B19" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>488</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D19" s="6">
         <v>5</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E19" s="6" t="s">
         <v>497</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>622</v>
+      <c r="F19" s="1" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="D20" s="6">
+        <v>11</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>504</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="D21" s="6">
+        <v>12</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>505</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="6" t="s">
+        <v>501</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="D22" s="6">
+        <v>13</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>506</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="6" t="s">
+        <v>502</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="D23" s="6">
+        <v>14</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>507</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="D24" s="6">
+        <v>15</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>508</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>543</v>
       </c>
     </row>
   </sheetData>
@@ -9700,9 +9974,9 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -9855,11 +10129,11 @@
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -9996,11 +10270,11 @@
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -10138,10 +10412,10 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -10294,11 +10568,11 @@
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -10513,12 +10787,12 @@
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">

--- a/DMSWithQMS User Details for Automation.xlsx
+++ b/DMSWithQMS User Details for Automation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="13890" windowHeight="6600" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="13890" windowHeight="6600" firstSheet="8" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="OrgNode" sheetId="14" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2173" uniqueCount="621">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2173" uniqueCount="622">
   <si>
     <t>Userid</t>
   </si>
@@ -1897,6 +1897,9 @@
   </si>
   <si>
     <t>WorkFlow_Appendix</t>
+  </si>
+  <si>
+    <t>Plant 1</t>
   </si>
 </sst>
 </file>
@@ -9466,7 +9469,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -10409,7 +10412,7 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10431,7 +10434,7 @@
         <v>459</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>440</v>
+        <v>621</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -10439,7 +10442,7 @@
         <v>460</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>440</v>
+        <v>621</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -10447,7 +10450,7 @@
         <v>461</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>440</v>
+        <v>621</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -10455,7 +10458,7 @@
         <v>462</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>440</v>
+        <v>621</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -10463,7 +10466,7 @@
         <v>463</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>440</v>
+        <v>621</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -10471,7 +10474,7 @@
         <v>464</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>440</v>
+        <v>621</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -10479,7 +10482,7 @@
         <v>465</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>440</v>
+        <v>621</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -10487,7 +10490,7 @@
         <v>474</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>440</v>
+        <v>621</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -10495,7 +10498,7 @@
         <v>475</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>440</v>
+        <v>621</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -10503,7 +10506,7 @@
         <v>476</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>440</v>
+        <v>621</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -10511,7 +10514,7 @@
         <v>477</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>440</v>
+        <v>621</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -10519,7 +10522,7 @@
         <v>478</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>440</v>
+        <v>621</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -10527,7 +10530,7 @@
         <v>479</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>440</v>
+        <v>621</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -10535,7 +10538,7 @@
         <v>480</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>440</v>
+        <v>621</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -10543,7 +10546,7 @@
         <v>51</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>440</v>
+        <v>621</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -10551,7 +10554,7 @@
         <v>74</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>440</v>
+        <v>621</v>
       </c>
     </row>
   </sheetData>
@@ -10783,8 +10786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10820,7 +10823,7 @@
         <v>618</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>440</v>
+        <v>621</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -10834,7 +10837,7 @@
         <v>558</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>440</v>
+        <v>621</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -10848,7 +10851,7 @@
         <v>559</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>440</v>
+        <v>621</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -10862,7 +10865,7 @@
         <v>560</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>440</v>
+        <v>621</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -10876,7 +10879,7 @@
         <v>561</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>440</v>
+        <v>621</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -10890,7 +10893,7 @@
         <v>565</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>440</v>
+        <v>621</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -10904,7 +10907,7 @@
         <v>566</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>440</v>
+        <v>621</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -10918,7 +10921,7 @@
         <v>567</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>440</v>
+        <v>621</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -10932,7 +10935,7 @@
         <v>568</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>440</v>
+        <v>621</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -10946,7 +10949,7 @@
         <v>569</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>440</v>
+        <v>621</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -10960,7 +10963,7 @@
         <v>570</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>440</v>
+        <v>621</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -10974,7 +10977,7 @@
         <v>571</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>440</v>
+        <v>621</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -10988,7 +10991,7 @@
         <v>572</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>440</v>
+        <v>621</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -11002,7 +11005,7 @@
         <v>573</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>440</v>
+        <v>621</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -11016,7 +11019,7 @@
         <v>574</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>440</v>
+        <v>621</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -11030,7 +11033,7 @@
         <v>575</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>440</v>
+        <v>621</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -11044,7 +11047,7 @@
         <v>576</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>440</v>
+        <v>621</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -11058,7 +11061,7 @@
         <v>577</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>440</v>
+        <v>621</v>
       </c>
     </row>
   </sheetData>
